--- a/medicine/Pharmacie/Clostébol/Clostébol.xlsx
+++ b/medicine/Pharmacie/Clostébol/Clostébol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clost%C3%A9bol</t>
+          <t>Clostébol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le clostébol est un stéroïde anabolisant synthétique dérivé de la testostérone. Il est un des produits interdits par l'Agence mondiale antidopage. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clost%C3%A9bol</t>
+          <t>Clostébol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Cas de dopage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2016, la septuple championne du monde de ski de fond norvégienne Therese Johaug est contrôlée positive au clostébol et suspendue treize mois[1]. Elle indique avoir absorber la substance via une crème pour les lèvres[2],[3].
-En mai 2019, le Brésilien Gabriel Santos a été suspendu du circuit de l'International Swimming League pour un test positif au clostébol[4].
-En juillet 2022, le joueur de football José Luis Palomino est contrôlé positif au clostébol[5]. Le mois suivant, le joueur de baseball Fernando Tatís Jr. est suspendu 80 matchs par les Ligues majeures de baseball pour un test positif[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, la septuple championne du monde de ski de fond norvégienne Therese Johaug est contrôlée positive au clostébol et suspendue treize mois. Elle indique avoir absorber la substance via une crème pour les lèvres,.
+En mai 2019, le Brésilien Gabriel Santos a été suspendu du circuit de l'International Swimming League pour un test positif au clostébol.
+En juillet 2022, le joueur de football José Luis Palomino est contrôlé positif au clostébol. Le mois suivant, le joueur de baseball Fernando Tatís Jr. est suspendu 80 matchs par les Ligues majeures de baseball pour un test positif.
 </t>
         </is>
       </c>
